--- a/molgenis-app/src/test/resources/xls/emx_all_datatypes_metadata_only.xlsx
+++ b/molgenis-app/src/test/resources/xls/emx_all_datatypes_metadata_only.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="5" r:id="rId1"/>
@@ -230,64 +230,64 @@
     <t>readOnly</t>
   </si>
   <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>xstring_hidden</t>
+  </si>
+  <si>
+    <t>xstringnillable_hidden</t>
+  </si>
+  <si>
+    <t>xstring_unique</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>xint_unique</t>
+  </si>
+  <si>
+    <t>xxref_unique</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Molgenis test package</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>universe</t>
+  </si>
+  <si>
+    <t>euro_nl</t>
+  </si>
+  <si>
+    <t>euro_nl_org</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis_test</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis_test_TypeTestRef</t>
+  </si>
+  <si>
+    <t>euro_nl_org_molgenis_test_TypeTest</t>
+  </si>
+  <si>
     <t>aggregateable</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>xstring_hidden</t>
-  </si>
-  <si>
-    <t>xstringnillable_hidden</t>
-  </si>
-  <si>
-    <t>xstring_unique</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>xint_unique</t>
-  </si>
-  <si>
-    <t>xxref_unique</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Molgenis test package</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>earth</t>
-  </si>
-  <si>
-    <t>universe</t>
-  </si>
-  <si>
-    <t>euro_nl</t>
-  </si>
-  <si>
-    <t>euro_nl_org</t>
-  </si>
-  <si>
-    <t>euro_nl_org_molgenis</t>
-  </si>
-  <si>
-    <t>euro_nl_org_molgenis_test</t>
-  </si>
-  <si>
-    <t>euro_nl_org_molgenis_test_TypeTestRef</t>
-  </si>
-  <si>
-    <t>euro_nl_org_molgenis_test_TypeTest</t>
   </si>
 </sst>
 </file>
@@ -688,14 +688,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -703,57 +703,57 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -775,41 +775,41 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -826,22 +826,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -879,21 +879,21 @@
         <v>68</v>
       </c>
       <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
-        <v>70</v>
-      </c>
       <c r="O1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -908,12 +908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -931,12 +931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -951,12 +951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -971,12 +971,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -991,18 +991,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1011,18 +1011,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1031,12 +1031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -1051,12 +1051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -1068,12 +1068,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1085,12 +1085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -1105,12 +1105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
@@ -1125,12 +1125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
@@ -1142,12 +1142,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
@@ -1162,12 +1162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -1179,12 +1179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -1202,12 +1202,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -1222,12 +1222,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -1239,12 +1239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -1259,12 +1259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -1279,12 +1279,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
         <v>56</v>
@@ -1296,12 +1296,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -1316,12 +1316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -1333,12 +1333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -1356,12 +1356,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1379,12 +1379,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -1396,12 +1396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
         <v>57</v>
@@ -1413,12 +1413,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
         <v>57</v>
@@ -1439,12 +1439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -1465,18 +1465,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1488,18 +1488,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1508,12 +1508,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1528,12 +1528,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -1545,12 +1545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1579,18 +1579,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1602,18 +1602,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1622,12 +1622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -1642,12 +1642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1662,12 +1662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
@@ -1682,12 +1682,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
@@ -1702,18 +1702,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
